--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgl1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgl1-Egfr.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>0.1073482061546667</v>
+        <v>0.02956397845333333</v>
       </c>
       <c r="R2">
-        <v>0.9661338553919999</v>
+        <v>0.26607580608</v>
       </c>
       <c r="S2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="T2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>3.502954936099556</v>
+        <v>3.502954936099555</v>
       </c>
       <c r="R3">
         <v>31.526594424896</v>
       </c>
       <c r="S3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="T3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>1.213293910430222</v>
+        <v>1.182964446040889</v>
       </c>
       <c r="R4">
-        <v>10.919645193872</v>
+        <v>10.646680014368</v>
       </c>
       <c r="S4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="T4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.00956231536</v>
+        <v>0.007949018216888889</v>
       </c>
       <c r="R5">
-        <v>0.08606083824000001</v>
+        <v>0.07154116395200001</v>
       </c>
       <c r="S5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="T5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
     </row>
   </sheetData>
